--- a/TestExcute.xlsx
+++ b/TestExcute.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iray3\Documents\Bandicam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Automation\TestExecution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F971ECD3-3825-46D9-83AD-C57E4B57DBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792ECA5E-DD14-4797-AE16-C0E0C3A1ADF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B5A13A54-3EB8-4872-AB5E-32171F438F5D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B5A13A54-3EB8-4872-AB5E-32171F438F5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Conditional Tag Expression" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="65">
   <si>
     <t>Status</t>
   </si>
@@ -217,6 +215,21 @@
   </si>
   <si>
     <t>C:\Projects\English\402473 KA BM PBTE.fltar</t>
+  </si>
+  <si>
+    <t>AddressLanguages.DE</t>
+  </si>
+  <si>
+    <t>AddressLanguages.Prasad</t>
+  </si>
+  <si>
+    <t>AddressLanguages.AU</t>
+  </si>
+  <si>
+    <t>AddressLanguages.AR</t>
+  </si>
+  <si>
+    <t>Hear In Noise</t>
   </si>
 </sst>
 </file>
@@ -713,23 +726,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C273B45D-4E81-4252-BD93-CE38AB9A0EF5}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="97" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -761,7 +774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -793,7 +806,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -825,7 +838,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -854,6 +867,134 @@
         <v>15</v>
       </c>
       <c r="J4" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -866,19 +1007,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2068DEBE-21BC-4B79-A5BF-1A3BD1B15BB0}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
@@ -913,7 +1054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
@@ -948,7 +1089,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>25</v>
       </c>
@@ -983,7 +1124,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>25</v>
       </c>
@@ -1018,7 +1159,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>25</v>
       </c>
@@ -1053,7 +1194,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>25</v>
       </c>
@@ -1088,7 +1229,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
@@ -1123,7 +1264,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>25</v>
       </c>
@@ -1158,7 +1299,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>25</v>
       </c>
@@ -1193,7 +1334,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>25</v>
       </c>
@@ -1228,7 +1369,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
@@ -1263,7 +1404,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>25</v>
       </c>
@@ -1298,7 +1439,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>25</v>
       </c>
@@ -1333,7 +1474,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>25</v>
       </c>
@@ -1368,7 +1509,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>25</v>
       </c>
@@ -1403,7 +1544,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>25</v>
       </c>
@@ -1438,7 +1579,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>25</v>
       </c>
@@ -1473,7 +1614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>25</v>
       </c>
@@ -1508,7 +1649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>25</v>
       </c>
@@ -1543,7 +1684,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>25</v>
       </c>
@@ -1578,7 +1719,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>25</v>
       </c>
@@ -1613,7 +1754,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>25</v>
       </c>
@@ -1648,7 +1789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>25</v>
       </c>
@@ -1683,7 +1824,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>25</v>
       </c>
@@ -1718,7 +1859,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>25</v>
       </c>
@@ -1753,7 +1894,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>25</v>
       </c>
@@ -1788,7 +1929,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>25</v>
       </c>
@@ -1823,7 +1964,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>25</v>
       </c>
@@ -1858,7 +1999,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>25</v>
       </c>
@@ -1893,7 +2034,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>25</v>
       </c>
@@ -1928,7 +2069,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>25</v>
       </c>
@@ -1963,7 +2104,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>25</v>
       </c>
@@ -1998,7 +2139,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>25</v>
       </c>
@@ -2033,9 +2174,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>53</v>
@@ -2068,9 +2209,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>53</v>
@@ -2103,9 +2244,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>53</v>
@@ -2138,9 +2279,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>53</v>
